--- a/data/trans_orig/AIRE_2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_2-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>34918</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19121</v>
+        <v>17469</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56441</v>
+        <v>54050</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2766649942269015</v>
+        <v>0.2766649942269014</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1514992730948104</v>
+        <v>0.1384134227859709</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4471922405592691</v>
+        <v>0.428249027161739</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -762,19 +762,19 @@
         <v>13203</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4844</v>
+        <v>5095</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26495</v>
+        <v>27164</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1065664032014244</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03909497738741516</v>
+        <v>0.04112341233709203</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2138578779001538</v>
+        <v>0.2192550794180054</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -783,19 +783,19 @@
         <v>48121</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28965</v>
+        <v>30492</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>75129</v>
+        <v>72509</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1924041369753285</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1158108478357836</v>
+        <v>0.1219174364586435</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3003915325650945</v>
+        <v>0.2899161977637754</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>45300</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28071</v>
+        <v>29918</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>63135</v>
+        <v>63472</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3589258003370804</v>
+        <v>0.3589258003370803</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.222410348249926</v>
+        <v>0.2370506550816986</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5002343798068097</v>
+        <v>0.5029061440049438</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>33</v>
@@ -833,19 +833,19 @@
         <v>59611</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43173</v>
+        <v>44491</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>74780</v>
+        <v>75199</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4811467839721404</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.348473917603479</v>
+        <v>0.3591095791827168</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6035854808620293</v>
+        <v>0.6069681047301559</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>52</v>
@@ -854,19 +854,19 @@
         <v>104911</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>81701</v>
+        <v>82149</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>128668</v>
+        <v>127723</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4194697754113839</v>
+        <v>0.419469775411384</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3266677515536453</v>
+        <v>0.328457421879393</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5144590129064645</v>
+        <v>0.5106806184866117</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>20872</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11148</v>
+        <v>11100</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>36207</v>
+        <v>36183</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1653745959114689</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08832442169206518</v>
+        <v>0.08795006618516631</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2868786982927115</v>
+        <v>0.2866899267060105</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -904,19 +904,19 @@
         <v>19714</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11785</v>
+        <v>10333</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>35033</v>
+        <v>31329</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.159117655961186</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09512114885130814</v>
+        <v>0.08340614580687591</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2827665609601139</v>
+        <v>0.2528692809143611</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>24</v>
@@ -925,19 +925,19 @@
         <v>40586</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>25901</v>
+        <v>25798</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>57254</v>
+        <v>57064</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1622751280040394</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1035602686981638</v>
+        <v>0.1031509997865373</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2289223432564725</v>
+        <v>0.2281599565188862</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>16640</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8410</v>
+        <v>7986</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32649</v>
+        <v>31823</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1318453732581724</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06663310823922784</v>
+        <v>0.06327535006989231</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2586879350545454</v>
+        <v>0.252141579550865</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -975,19 +975,19 @@
         <v>10789</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4505</v>
+        <v>5059</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22216</v>
+        <v>22332</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08708515200403802</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03636280741246609</v>
+        <v>0.04083283046810313</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1793123723561991</v>
+        <v>0.1802486902007671</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -996,19 +996,19 @@
         <v>27430</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16451</v>
+        <v>16569</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44054</v>
+        <v>45050</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1096727344908205</v>
+        <v>0.1096727344908204</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06577744727877723</v>
+        <v>0.06624913954642454</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1761424415144277</v>
+        <v>0.1801256146207715</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>8480</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2873</v>
+        <v>2991</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19152</v>
+        <v>18796</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06718923626637686</v>
+        <v>0.06718923626637685</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02276230540126349</v>
+        <v>0.02369891090628426</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1517452201674437</v>
+        <v>0.1489222894511719</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -1046,19 +1046,19 @@
         <v>20577</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11485</v>
+        <v>10898</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>34524</v>
+        <v>33191</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1660840048612111</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09270142001943356</v>
+        <v>0.08796495096289546</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2786602293321789</v>
+        <v>0.2679002993536159</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>17</v>
@@ -1067,19 +1067,19 @@
         <v>29057</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>17008</v>
+        <v>17788</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>44535</v>
+        <v>45852</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1161782251184278</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06800530315010844</v>
+        <v>0.07112226511726517</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1780657603624001</v>
+        <v>0.1833299480421821</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>9458</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3373</v>
+        <v>3470</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22031</v>
+        <v>20144</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.06431337632459556</v>
+        <v>0.06431337632459558</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02293479721048991</v>
+        <v>0.0235969115495215</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1498124057351897</v>
+        <v>0.1369789001011413</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1192,19 +1192,19 @@
         <v>16098</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9255</v>
+        <v>9150</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26288</v>
+        <v>27320</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09403386628796072</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05406148125733209</v>
+        <v>0.05344757166264933</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1535559176533317</v>
+        <v>0.1595871697465428</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1213,19 +1213,19 @@
         <v>25556</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15200</v>
+        <v>15053</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41053</v>
+        <v>39611</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08030064229194273</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04776084250563618</v>
+        <v>0.04729935254939809</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1289956648460703</v>
+        <v>0.1244649406990538</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>32754</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>21914</v>
+        <v>22076</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>49786</v>
+        <v>46392</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2227329542159202</v>
+        <v>0.2227329542159203</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1490159393577574</v>
+        <v>0.1501214203755821</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3385517921346613</v>
+        <v>0.3154727053704887</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>36</v>
@@ -1263,19 +1263,19 @@
         <v>38151</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>27271</v>
+        <v>26883</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>49966</v>
+        <v>48641</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2228519175786131</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1592992560164607</v>
+        <v>0.1570330459462256</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2918675152143367</v>
+        <v>0.2841269597659659</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>58</v>
@@ -1284,19 +1284,19 @@
         <v>70905</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>53452</v>
+        <v>55191</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>87882</v>
+        <v>87982</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2227969470680598</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1679558912636555</v>
+        <v>0.1734198450594225</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2761411712417648</v>
+        <v>0.2764553205617009</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>53340</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>39361</v>
+        <v>38636</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>69405</v>
+        <v>69843</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.36271369910507</v>
+        <v>0.3627136991050701</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2676585455475118</v>
+        <v>0.262729825339202</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4719583002989127</v>
+        <v>0.474936909957253</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>61</v>
@@ -1334,19 +1334,19 @@
         <v>62869</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>51002</v>
+        <v>50390</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>76395</v>
+        <v>75461</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3672360649833953</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2979179683632582</v>
+        <v>0.2943423682382042</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4462507290752632</v>
+        <v>0.4407907896621376</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>93</v>
@@ -1355,19 +1355,19 @@
         <v>116208</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>96121</v>
+        <v>96997</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>136218</v>
+        <v>137747</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3651463732025551</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3020298485307994</v>
+        <v>0.3047828841917422</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4280221045251484</v>
+        <v>0.4328258121326552</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>31373</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19221</v>
+        <v>19334</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45846</v>
+        <v>45433</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2133407791298292</v>
+        <v>0.2133407791298293</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1307047831366233</v>
+        <v>0.1314703347592392</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3117553218321461</v>
+        <v>0.3089495060910218</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -1405,19 +1405,19 @@
         <v>29706</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20656</v>
+        <v>20156</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41980</v>
+        <v>40900</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1735229359414913</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1206574100635371</v>
+        <v>0.1177364909980367</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2452168857151571</v>
+        <v>0.2389097609010794</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>46</v>
@@ -1426,19 +1426,19 @@
         <v>61079</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46964</v>
+        <v>45513</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>79056</v>
+        <v>78841</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1919219381187033</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1475705030109907</v>
+        <v>0.1430091444198329</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2484065976780223</v>
+        <v>0.2477307192069534</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>20132</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10262</v>
+        <v>10765</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34073</v>
+        <v>33610</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1368991912245851</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06978079016570816</v>
+        <v>0.07320405467878965</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2317006604120701</v>
+        <v>0.2285496615252512</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -1476,19 +1476,19 @@
         <v>24370</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15867</v>
+        <v>16033</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35777</v>
+        <v>35086</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1423552152085396</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09268273844803522</v>
+        <v>0.09365340018326777</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2089848692441261</v>
+        <v>0.2049507115931045</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -1497,19 +1497,19 @@
         <v>44502</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>32764</v>
+        <v>30952</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>61962</v>
+        <v>62064</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1398340993187391</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1029505308173567</v>
+        <v>0.09725717664208246</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1946949941363048</v>
+        <v>0.1950153687549664</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>14247</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7470</v>
+        <v>7728</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22685</v>
+        <v>24854</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05897199260108673</v>
+        <v>0.05897199260108672</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03091865484517602</v>
+        <v>0.03198860241638857</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09389705592425908</v>
+        <v>0.1028727477077132</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -1622,19 +1622,19 @@
         <v>15538</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9263</v>
+        <v>10014</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22858</v>
+        <v>23398</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07477174168941839</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04457474942737325</v>
+        <v>0.04818726282862203</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1099964550923408</v>
+        <v>0.1125948740751028</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -1643,19 +1643,19 @@
         <v>29786</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21291</v>
+        <v>20769</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42153</v>
+        <v>41624</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06627797698487088</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04737607322590749</v>
+        <v>0.04621360305515082</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09379692540640182</v>
+        <v>0.09261999447319337</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>55491</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>43040</v>
+        <v>41496</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>71431</v>
+        <v>70054</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2296845303860769</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1781493825680653</v>
+        <v>0.1717580575833996</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2956636249363639</v>
+        <v>0.2899646795191198</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>75</v>
@@ -1693,19 +1693,19 @@
         <v>53190</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>42661</v>
+        <v>42838</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>63370</v>
+        <v>63913</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2559561958452877</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2052908480825786</v>
+        <v>0.2061389523864492</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3049438246360514</v>
+        <v>0.3075536386071464</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>123</v>
@@ -1714,19 +1714,19 @@
         <v>108681</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>91889</v>
+        <v>91112</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>126664</v>
+        <v>125691</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2418328484706183</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2044683087666169</v>
+        <v>0.2027403420711395</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.281848853614684</v>
+        <v>0.2796841480787367</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>112244</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>96298</v>
+        <v>96975</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>126863</v>
+        <v>129012</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4645976310822089</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3985934288292376</v>
+        <v>0.4013943919652831</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5251066455156055</v>
+        <v>0.5340022134221292</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>118</v>
@@ -1764,19 +1764,19 @@
         <v>80604</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>69861</v>
+        <v>68735</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>92883</v>
+        <v>92643</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3878732759114237</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.336175440374446</v>
+        <v>0.330760572230366</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4469621282525986</v>
+        <v>0.4458067421118703</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>216</v>
@@ -1785,19 +1785,19 @@
         <v>192848</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>173749</v>
+        <v>172534</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>211912</v>
+        <v>213293</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4291194131940757</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3866210666753205</v>
+        <v>0.3839182639457094</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.471539210948244</v>
+        <v>0.4746120302142223</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>34383</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>23449</v>
+        <v>23610</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>46203</v>
+        <v>46370</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1423165488063233</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09706036566394902</v>
+        <v>0.09772451107324652</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1912429297887777</v>
+        <v>0.1919332160991775</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -1835,19 +1835,19 @@
         <v>34481</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25892</v>
+        <v>26256</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>45137</v>
+        <v>45021</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1659234463603057</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1245968769084673</v>
+        <v>0.1263441046201363</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2172028245434213</v>
+        <v>0.2166443538465824</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>74</v>
@@ -1856,19 +1856,19 @@
         <v>68863</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>55556</v>
+        <v>55660</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>83819</v>
+        <v>85433</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1532326477845255</v>
+        <v>0.1532326477845254</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1236213347264511</v>
+        <v>0.1238520274404265</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1865114375434801</v>
+        <v>0.1901020557043974</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>25230</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17547</v>
+        <v>16167</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>37375</v>
+        <v>36129</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1044292971243042</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07262840438535695</v>
+        <v>0.06691722244196738</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1547015629457537</v>
+        <v>0.1495417859817105</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>33</v>
@@ -1906,19 +1906,19 @@
         <v>23997</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>16880</v>
+        <v>16818</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>32355</v>
+        <v>31911</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1154753401935644</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08122835366920111</v>
+        <v>0.08092799120936547</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1556949140971292</v>
+        <v>0.1535568795732296</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>56</v>
@@ -1927,19 +1927,19 @@
         <v>49226</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>37807</v>
+        <v>37526</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>63829</v>
+        <v>62888</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1095371135659097</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08412691234853191</v>
+        <v>0.08350259540548134</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1420306659687249</v>
+        <v>0.1399368729801642</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>19678</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11170</v>
+        <v>11737</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30696</v>
+        <v>31808</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.07568912874736661</v>
+        <v>0.07568912874736662</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04296232705009871</v>
+        <v>0.04514495704365919</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1180639676911468</v>
+        <v>0.1223435653717782</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>36</v>
@@ -2052,19 +2052,19 @@
         <v>24659</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18166</v>
+        <v>17237</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34301</v>
+        <v>33334</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09188148040212996</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06768797930231676</v>
+        <v>0.06422780147221659</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1278086542913885</v>
+        <v>0.1242082594392012</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>51</v>
@@ -2073,19 +2073,19 @@
         <v>44337</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>33516</v>
+        <v>33722</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>58653</v>
+        <v>59424</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08391375944469544</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06343276561809141</v>
+        <v>0.06382254942971301</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1110086874302708</v>
+        <v>0.1124676571953263</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>63284</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>49986</v>
+        <v>49309</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>78048</v>
+        <v>78973</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2434093689578708</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1922591837644317</v>
+        <v>0.1896578172187094</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3001966851373731</v>
+        <v>0.3037515116318819</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>82</v>
@@ -2123,19 +2123,19 @@
         <v>51939</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>43054</v>
+        <v>41783</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>63037</v>
+        <v>62603</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.1935336915562951</v>
+        <v>0.193533691556295</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1604238700772457</v>
+        <v>0.1556884645028547</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2348835220247367</v>
+        <v>0.2332670318130972</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>139</v>
@@ -2144,19 +2144,19 @@
         <v>115224</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>99444</v>
+        <v>98090</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>132776</v>
+        <v>133387</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2180758635997163</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1882107049852575</v>
+        <v>0.1856469916114012</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.251295155578343</v>
+        <v>0.2524523478704041</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>113611</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>98495</v>
+        <v>97782</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>130219</v>
+        <v>130662</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4369806000676144</v>
+        <v>0.4369806000676145</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3788406864977916</v>
+        <v>0.3760985370438031</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5008590697678519</v>
+        <v>0.5025639912441824</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>170</v>
@@ -2194,19 +2194,19 @@
         <v>103869</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>91083</v>
+        <v>93294</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>116305</v>
+        <v>116289</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3870323918912293</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3393869599080181</v>
+        <v>0.347625141556817</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4333676477733218</v>
+        <v>0.4333107645648828</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>286</v>
@@ -2215,19 +2215,19 @@
         <v>217481</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>195705</v>
+        <v>196071</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>237719</v>
+        <v>238242</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4116102539311891</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3703972434961415</v>
+        <v>0.3710897460072074</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4499143736419708</v>
+        <v>0.4509031377425299</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>39820</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>29566</v>
+        <v>28887</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>53167</v>
+        <v>52274</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1531605077147426</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1137183029994359</v>
+        <v>0.111108913498623</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.20449411839784</v>
+        <v>0.2010593587989764</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>76</v>
@@ -2265,19 +2265,19 @@
         <v>51451</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>42132</v>
+        <v>41722</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>62972</v>
+        <v>62459</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1917152207969849</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1569885188924573</v>
+        <v>0.1554616164401485</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2346442139443954</v>
+        <v>0.2327317520040768</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>114</v>
@@ -2286,19 +2286,19 @@
         <v>91272</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>78034</v>
+        <v>76511</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>108028</v>
+        <v>107164</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.172743721043094</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1476890157910817</v>
+        <v>0.1448073329462864</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2044566632999875</v>
+        <v>0.202822156621097</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>23597</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>16128</v>
+        <v>16107</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>35293</v>
+        <v>33696</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09076039451240547</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06203282743113209</v>
+        <v>0.06195062031911236</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1357486344219175</v>
+        <v>0.1296026314196244</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>55</v>
@@ -2336,19 +2336,19 @@
         <v>36455</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>28031</v>
+        <v>27728</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>46050</v>
+        <v>46618</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1358372153533608</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1044485027049704</v>
+        <v>0.1033184020343332</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1715897064765883</v>
+        <v>0.1737055471332897</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>78</v>
@@ -2357,19 +2357,19 @@
         <v>60052</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>46751</v>
+        <v>46694</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>72662</v>
+        <v>72351</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1136564019813052</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08848220146281359</v>
+        <v>0.08837418878922047</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.137523031833087</v>
+        <v>0.1369330770387976</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>16354</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9187</v>
+        <v>9833</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>26798</v>
+        <v>26220</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.06291640225829168</v>
+        <v>0.06291640225829166</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0353449607518113</v>
+        <v>0.03782925571703964</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1030986864899622</v>
+        <v>0.1008741284116531</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>21</v>
@@ -2482,19 +2482,19 @@
         <v>13444</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>8670</v>
+        <v>8597</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>20034</v>
+        <v>20248</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.05471015224886595</v>
+        <v>0.05471015224886593</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03528159934813009</v>
+        <v>0.03498705236013676</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08152879298964608</v>
+        <v>0.08240056641986007</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>36</v>
@@ -2503,19 +2503,19 @@
         <v>29797</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>20879</v>
+        <v>20779</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>40937</v>
+        <v>40278</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.05892847997623048</v>
+        <v>0.05892847997623047</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04129193682782967</v>
+        <v>0.04109239303597066</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0809585367058672</v>
+        <v>0.07965527564563474</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>69224</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>55974</v>
+        <v>55411</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>84010</v>
+        <v>83867</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2663210402603812</v>
+        <v>0.2663210402603811</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2153455740943077</v>
+        <v>0.2131815604981876</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3232065423327773</v>
+        <v>0.3226584758857496</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>122</v>
@@ -2553,19 +2553,19 @@
         <v>74156</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>63885</v>
+        <v>62662</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>85292</v>
+        <v>85142</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.3017809585305815</v>
+        <v>0.3017809585305814</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2599809178167894</v>
+        <v>0.2550029240235461</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.347098097974299</v>
+        <v>0.3464866131499462</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>195</v>
@@ -2574,19 +2574,19 @@
         <v>143380</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>125170</v>
+        <v>127010</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>160011</v>
+        <v>162788</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2835531984358419</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2475409970324608</v>
+        <v>0.2511783356551807</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3164439554398653</v>
+        <v>0.3219346896590253</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>98927</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>85165</v>
+        <v>85012</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>115709</v>
+        <v>113419</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3805956907994331</v>
+        <v>0.380595690799433</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3276522646358261</v>
+        <v>0.3270611359558419</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4451609303745638</v>
+        <v>0.4363497385296594</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>149</v>
@@ -2624,19 +2624,19 @@
         <v>88335</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>77104</v>
+        <v>77808</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>99781</v>
+        <v>100451</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.3594831098264496</v>
+        <v>0.3594831098264494</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3137749316788265</v>
+        <v>0.3166399067530889</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4060630344726938</v>
+        <v>0.4087895057057498</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>260</v>
@@ -2645,19 +2645,19 @@
         <v>187262</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>168013</v>
+        <v>167456</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>206701</v>
+        <v>208827</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3703357874334284</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3322676809146039</v>
+        <v>0.3311659261530477</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4087786021693635</v>
+        <v>0.4129832253628507</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>42575</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>32445</v>
+        <v>31922</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>55544</v>
+        <v>55002</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1637975449621539</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1248225925313021</v>
+        <v>0.122813460233154</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.213690044479266</v>
+        <v>0.2116070248805698</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>46</v>
@@ -2695,19 +2695,19 @@
         <v>29904</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>22559</v>
+        <v>23341</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>38801</v>
+        <v>39763</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1216955794957247</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09180338684976853</v>
+        <v>0.09498555499782493</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1579022744630391</v>
+        <v>0.1618162772956241</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>93</v>
@@ -2716,19 +2716,19 @@
         <v>72479</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>58454</v>
+        <v>59664</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>87044</v>
+        <v>88184</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.1433376069869163</v>
+        <v>0.1433376069869162</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.115600772314066</v>
+        <v>0.1179936103570745</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1721401700222357</v>
+        <v>0.1743959772570999</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>32847</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>24707</v>
+        <v>24483</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>44863</v>
+        <v>44171</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1263693217197402</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09505382244707711</v>
+        <v>0.09419268010268839</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1726008907028554</v>
+        <v>0.1699354984027839</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>65</v>
@@ -2766,19 +2766,19 @@
         <v>39889</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>31871</v>
+        <v>30573</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>49027</v>
+        <v>47929</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.1623301998983784</v>
+        <v>0.1623301998983783</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1296994870816059</v>
+        <v>0.1244180389356545</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1995164964973382</v>
+        <v>0.1950490506998232</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>105</v>
@@ -2787,19 +2787,19 @@
         <v>72736</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>59829</v>
+        <v>60444</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>86962</v>
+        <v>86859</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1438449271675828</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1183200790996998</v>
+        <v>0.1195363799481535</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1719795712529755</v>
+        <v>0.1717750288981253</v>
       </c>
     </row>
     <row r="33">
@@ -2891,19 +2891,19 @@
         <v>8171</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>4279</v>
+        <v>4169</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>14325</v>
+        <v>13651</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04999687130844179</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02618199890505516</v>
+        <v>0.02551167283690087</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08765594018003529</v>
+        <v>0.08352764340172156</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>31</v>
@@ -2912,19 +2912,19 @@
         <v>16483</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>11741</v>
+        <v>11243</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>22827</v>
+        <v>22234</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.09387284458401285</v>
+        <v>0.09387284458401286</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.06686476358595767</v>
+        <v>0.06402988781234342</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1300042885875979</v>
+        <v>0.1266252372661193</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>42</v>
@@ -2933,19 +2933,19 @@
         <v>24654</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>18441</v>
+        <v>18466</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>33331</v>
+        <v>33614</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.07272202407285838</v>
+        <v>0.0727220240728584</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0543952245273514</v>
+        <v>0.05447096824530537</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.09831631096440535</v>
+        <v>0.09915274563194175</v>
       </c>
     </row>
     <row r="35">
@@ -2962,19 +2962,19 @@
         <v>35253</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>26979</v>
+        <v>27019</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>44007</v>
+        <v>44747</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.2157146615785346</v>
+        <v>0.2157146615785345</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1650844735919673</v>
+        <v>0.165328262187717</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2692798577861328</v>
+        <v>0.2738068682400135</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>110</v>
@@ -2983,19 +2983,19 @@
         <v>57548</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>49467</v>
+        <v>48467</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>67084</v>
+        <v>65845</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3277431725093581</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2817209988732595</v>
+        <v>0.2760280342175144</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.382051416975546</v>
+        <v>0.3749952717265531</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>160</v>
@@ -3004,19 +3004,19 @@
         <v>92801</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>80729</v>
+        <v>80579</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>106054</v>
+        <v>107160</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2737387881063568</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2381291279008443</v>
+        <v>0.2376856680132402</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3128318543147842</v>
+        <v>0.3160941560516713</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>62748</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>52263</v>
+        <v>52927</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>72840</v>
+        <v>73722</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3839577606981592</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.31979573925058</v>
+        <v>0.323859087926043</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4457104509871483</v>
+        <v>0.4511069098381116</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>97</v>
@@ -3054,19 +3054,19 @@
         <v>51816</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>43498</v>
+        <v>43712</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>60900</v>
+        <v>61317</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2950999688537189</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2477241810051843</v>
+        <v>0.2489423174875989</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3468326675719736</v>
+        <v>0.3492051330095639</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>183</v>
@@ -3075,19 +3075,19 @@
         <v>114565</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>100599</v>
+        <v>101152</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>128685</v>
+        <v>128686</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.337934692872609</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2967399757959309</v>
+        <v>0.2983703966962148</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3795869265457478</v>
+        <v>0.3795883629705185</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>27983</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>20875</v>
+        <v>20565</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>37856</v>
+        <v>36789</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.171227429176269</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1277352165246658</v>
+        <v>0.1258351729784163</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2316418805999412</v>
+        <v>0.2251113237431341</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>47</v>
@@ -3125,19 +3125,19 @@
         <v>27390</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>21089</v>
+        <v>21163</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>35081</v>
+        <v>35702</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1559906334375225</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1201048685260363</v>
+        <v>0.120526774557295</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1997893906912553</v>
+        <v>0.2033283729245354</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>87</v>
@@ -3146,19 +3146,19 @@
         <v>55373</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>44040</v>
+        <v>45618</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>65816</v>
+        <v>66748</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.163335672368312</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.129905226414736</v>
+        <v>0.1345618119842938</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1941403948214348</v>
+        <v>0.1968882067387239</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>29270</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>21902</v>
+        <v>22263</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>37945</v>
+        <v>37932</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1791032772385956</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1340163985053638</v>
+        <v>0.1362293990061408</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2321873509763801</v>
+        <v>0.2321065355407663</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>43</v>
@@ -3196,19 +3196,19 @@
         <v>22351</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>16516</v>
+        <v>17030</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>29157</v>
+        <v>29617</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1272933806153875</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.09406068586368876</v>
+        <v>0.09698946609711277</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1660511859141785</v>
+        <v>0.1686734559063137</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>87</v>
@@ -3217,19 +3217,19 @@
         <v>51621</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>42535</v>
+        <v>41973</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>62792</v>
+        <v>61507</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1522688225798639</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1254671439300608</v>
+        <v>0.1238098108308497</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1852184326469168</v>
+        <v>0.1814277856834216</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>10896</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>6067</v>
+        <v>6637</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>17174</v>
+        <v>17578</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.08771180778787202</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.04884123350957709</v>
+        <v>0.05342585142295408</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1382550938185343</v>
+        <v>0.1415036603557938</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>34</v>
@@ -3342,19 +3342,19 @@
         <v>19031</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>14028</v>
+        <v>13370</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>27285</v>
+        <v>26374</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.08734054183270143</v>
+        <v>0.08734054183270142</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06438008988639683</v>
+        <v>0.06136113294778921</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1252224945472996</v>
+        <v>0.1210383053655896</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>48</v>
@@ -3363,19 +3363,19 @@
         <v>29927</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>22432</v>
+        <v>22705</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>39609</v>
+        <v>39328</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.08747534707800984</v>
+        <v>0.08747534707800983</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.06556853030616262</v>
+        <v>0.06636712953636134</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1157772924477001</v>
+        <v>0.1149557956172356</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>36603</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>28900</v>
+        <v>29006</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>45412</v>
+        <v>46416</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2946563536379341</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2326513524123063</v>
+        <v>0.2335007383457197</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3655704643419835</v>
+        <v>0.3736576080339469</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>209</v>
@@ -3413,19 +3413,19 @@
         <v>104120</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>93856</v>
+        <v>92754</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>116212</v>
+        <v>115191</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.477841912326695</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.4307389218321011</v>
+        <v>0.4256780481749847</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.5333376794038518</v>
+        <v>0.5286498791359868</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>268</v>
@@ -3434,19 +3434,19 @@
         <v>140723</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>126433</v>
+        <v>127724</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>153540</v>
+        <v>155041</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.4113279380931774</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3695590795491996</v>
+        <v>0.3733330928160723</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.4487938102086938</v>
+        <v>0.4531795726329215</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>43507</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>34198</v>
+        <v>34818</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>51750</v>
+        <v>53899</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3502361357114516</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2752996802952838</v>
+        <v>0.2802918979889326</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4165933154847585</v>
+        <v>0.4338895621973102</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>90</v>
@@ -3484,19 +3484,19 @@
         <v>48150</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>39236</v>
+        <v>39909</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>57614</v>
+        <v>57994</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2209752281778181</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1800680041071971</v>
+        <v>0.1831565775624768</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2644123668338189</v>
+        <v>0.2661539728771866</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>153</v>
@@ -3505,19 +3505,19 @@
         <v>91657</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>79900</v>
+        <v>79369</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>105904</v>
+        <v>104961</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2679093682630687</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2335448179366494</v>
+        <v>0.2319927887410211</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3095528264874912</v>
+        <v>0.3067984022776631</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>18363</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>12584</v>
+        <v>12050</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>26718</v>
+        <v>25284</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1478249501385462</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1013056178555068</v>
+        <v>0.09700548802077338</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2150850805525699</v>
+        <v>0.2035402303843602</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>38</v>
@@ -3555,19 +3555,19 @@
         <v>22074</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>15571</v>
+        <v>16326</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>29038</v>
+        <v>29030</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1013053335346785</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.07146166629201488</v>
+        <v>0.07492566724451433</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1332653122698095</v>
+        <v>0.1332266223258932</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>63</v>
@@ -3576,19 +3576,19 @@
         <v>40437</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>31500</v>
+        <v>31733</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>50454</v>
+        <v>51292</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1181964280199154</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.09207441153183496</v>
+        <v>0.09275351275751635</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1474753217580032</v>
+        <v>0.1499237410546542</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>14853</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>9778</v>
+        <v>9710</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>21381</v>
+        <v>21297</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.119570752724196</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.07871142502521314</v>
+        <v>0.07816784283276798</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1721152870087865</v>
+        <v>0.1714456934317448</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>48</v>
@@ -3626,19 +3626,19 @@
         <v>24521</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>18153</v>
+        <v>18574</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>32012</v>
+        <v>31629</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.112536984128107</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.08331220725996757</v>
+        <v>0.0852411352788105</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1469134029827951</v>
+        <v>0.1451553204919538</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>72</v>
@@ -3647,19 +3647,19 @@
         <v>39375</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>31018</v>
+        <v>31694</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>48875</v>
+        <v>49490</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1150909185458286</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.09066581281084192</v>
+        <v>0.09263974931339723</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1428611806743771</v>
+        <v>0.1446580205290907</v>
       </c>
     </row>
     <row r="45">
@@ -3751,19 +3751,19 @@
         <v>113722</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>88239</v>
+        <v>87849</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>145089</v>
+        <v>146501</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.08599483553874843</v>
+        <v>0.0859948355387484</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.06672511454166316</v>
+        <v>0.06643022076465159</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1097138450327889</v>
+        <v>0.1107818693549685</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>160</v>
@@ -3772,19 +3772,19 @@
         <v>118456</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>100542</v>
+        <v>99891</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>137718</v>
+        <v>140353</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.08398234794503258</v>
+        <v>0.08398234794503261</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.07128189907181448</v>
+        <v>0.07082051439296129</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.09763871445563099</v>
+        <v>0.09950712259308679</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>241</v>
@@ -3793,19 +3793,19 @@
         <v>232178</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>201496</v>
+        <v>200576</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>269592</v>
+        <v>268353</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.08495616935672727</v>
+        <v>0.08495616935672728</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.07372939742601163</v>
+        <v>0.07339280261662828</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.09864664228824217</v>
+        <v>0.09819319763406899</v>
       </c>
     </row>
     <row r="47">
@@ -3822,19 +3822,19 @@
         <v>337909</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>303206</v>
+        <v>305190</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>371438</v>
+        <v>372854</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.2555222161159054</v>
+        <v>0.2555222161159053</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2292800321267862</v>
+        <v>0.2307800236011301</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2808758633010008</v>
+        <v>0.2819467504721977</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>667</v>
@@ -3843,19 +3843,19 @@
         <v>438715</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>407273</v>
+        <v>406708</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>471900</v>
+        <v>470522</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.311038790150341</v>
+        <v>0.3110387901503411</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2887471445859485</v>
+        <v>0.288346467127684</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3345662585257794</v>
+        <v>0.3335888302627816</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>995</v>
@@ -3864,19 +3864,19 @@
         <v>776625</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>728042</v>
+        <v>728151</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>823664</v>
+        <v>821730</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2841749085207183</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.266398135750764</v>
+        <v>0.2664379476547523</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3013870889250644</v>
+        <v>0.3006795196472988</v>
       </c>
     </row>
     <row r="48">
@@ -3893,19 +3893,19 @@
         <v>505249</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>468443</v>
+        <v>468319</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>543701</v>
+        <v>540843</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.382062025044991</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.3542295039198213</v>
+        <v>0.3541361288888035</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.4111390946060196</v>
+        <v>0.4089778255601518</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>697</v>
@@ -3914,19 +3914,19 @@
         <v>455357</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>425444</v>
+        <v>425798</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>485806</v>
+        <v>487827</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.3228371238036382</v>
+        <v>0.3228371238036383</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.3016300568708594</v>
+        <v>0.3018805471256123</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3444248342635006</v>
+        <v>0.3458579649163782</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1215</v>
@@ -3935,19 +3935,19 @@
         <v>960606</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>912300</v>
+        <v>914210</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1005411</v>
+        <v>1008921</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.351495425655747</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.3338198557644458</v>
+        <v>0.3345188900151287</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3678901045291856</v>
+        <v>0.3691745240997392</v>
       </c>
     </row>
     <row r="49">
@@ -3964,19 +3964,19 @@
         <v>211138</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>185670</v>
+        <v>181375</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>243726</v>
+        <v>238668</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1596595515412975</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1404010871634447</v>
+        <v>0.1371534218139548</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1843021861952847</v>
+        <v>0.1804774678194681</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>284</v>
@@ -3985,19 +3985,19 @@
         <v>205796</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>184349</v>
+        <v>182289</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>228639</v>
+        <v>229252</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.1459041871963002</v>
+        <v>0.1459041871963003</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1306990183947853</v>
+        <v>0.1292388834668111</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.162099872344812</v>
+        <v>0.1625345077819594</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>492</v>
@@ -4006,19 +4006,19 @@
         <v>416934</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>381904</v>
+        <v>379518</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>453169</v>
+        <v>450303</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1525602621786494</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1397425660681136</v>
+        <v>0.1388695920530291</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1658192285440548</v>
+        <v>0.1647703171554258</v>
       </c>
     </row>
     <row r="50">
@@ -4035,19 +4035,19 @@
         <v>154408</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>132621</v>
+        <v>132684</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>179558</v>
+        <v>177579</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1167613717590577</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1002861129791766</v>
+        <v>0.1003333592373289</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.135779166982707</v>
+        <v>0.1342827405273376</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>278</v>
@@ -4056,19 +4056,19 @@
         <v>192161</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>169465</v>
+        <v>169369</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>217287</v>
+        <v>216619</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1362375509046878</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.120146627581006</v>
+        <v>0.1200783483440474</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1540514099784644</v>
+        <v>0.1535779053453516</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>449</v>
@@ -4077,19 +4077,19 @@
         <v>346569</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>317515</v>
+        <v>314087</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>383586</v>
+        <v>379546</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.126813234288158</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1161820565443665</v>
+        <v>0.1149276338588053</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1403579287251759</v>
+        <v>0.1388798158811335</v>
       </c>
     </row>
     <row r="51">
